--- a/Development/ToDo.xlsx
+++ b/Development/ToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basti\ARBEIT Lokal\dsCCPhos\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4604CDFC-8C01-40C0-8CE2-9B119F4E069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FB3773-952F-40C9-9DAE-2660E0FB26F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Value transformation mapping aus externer Datei</t>
+  </si>
+  <si>
+    <t>Check function: feature names in RDS correct? All tables and features available?</t>
+  </si>
+  <si>
+    <t>GetValidationReportDS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,13 +60,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +95,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -346,14 +383,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" style="1"/>
+    <col min="2" max="2" width="72" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="17.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Development/ToDo.xlsx
+++ b/Development/ToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basti\ARBEIT Lokal\dsCCPhos\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FB3773-952F-40C9-9DAE-2660E0FB26F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2E6F5D-90DD-4B2F-A3FB-E8E141C2F3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,18 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Task</t>
-  </si>
-  <si>
-    <t>Value transformation mapping aus externer Datei</t>
   </si>
   <si>
     <t>Check function: feature names in RDS correct? All tables and features available?</t>
   </si>
   <si>
     <t>GetValidationReportDS</t>
+  </si>
+  <si>
+    <t>In allen Tabellen Zeilen rausschmeißen, zu denen es keine passende Diagnosis- und Patient-Data gibtr</t>
+  </si>
+  <si>
+    <t>Duplikate in allen Tabellen</t>
   </si>
 </sst>
 </file>
@@ -383,16 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" style="1"/>
-    <col min="2" max="2" width="72" style="1" customWidth="1"/>
+    <col min="2" max="2" width="97.77734375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="17.77734375" style="1"/>
   </cols>
   <sheetData>
@@ -403,15 +406,20 @@
     </row>
     <row r="3" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Development/ToDo.xlsx
+++ b/Development/ToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basti\ARBEIT Lokal\dsCCPhos\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2E6F5D-90DD-4B2F-A3FB-E8E141C2F3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F2CA25-7AC6-49CE-BF22-8F6DDF639469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>GetValidationReportDS</t>
   </si>
   <si>
-    <t>In allen Tabellen Zeilen rausschmeißen, zu denen es keine passende Diagnosis- und Patient-Data gibtr</t>
+    <t>in Events: Daten für initiale Diagnose und LastVitalStatus ggf. anpassen, falls nicht konsistent mit anderen verfügbaren Daten</t>
   </si>
   <si>
-    <t>Duplikate in allen Tabellen</t>
+    <t>Bei InitialDiagnosis: Diagnose-Details zu nestes Details</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -414,12 +414,12 @@
     </row>
     <row r="5" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Development/ToDo.xlsx
+++ b/Development/ToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basti\ARBEIT Lokal\dsCCPhos\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F2CA25-7AC6-49CE-BF22-8F6DDF639469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1A71E8-6E22-4B9C-ABD5-72CAA2BD132C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Task</t>
   </si>
@@ -48,7 +48,31 @@
     <t>in Events: Daten für initiale Diagnose und LastVitalStatus ggf. anpassen, falls nicht konsistent mit anderen verfügbaren Daten</t>
   </si>
   <si>
-    <t>Bei InitialDiagnosis: Diagnose-Details zu nestes Details</t>
+    <t>Bei InitialDiagnosis: Diagnose-Details zu nested Details</t>
+  </si>
+  <si>
+    <t>Zusammenfassung der Transformation Monitors</t>
+  </si>
+  <si>
+    <t>Messaging Objekt</t>
+  </si>
+  <si>
+    <t>Checken Selektion in CCP-Explorer: Werden bei multiplen Malignomen alle Fälle von Patienten mitselektiert?</t>
+  </si>
+  <si>
+    <t>Check: Multiple initial diagnosis in some DiagnosisIDs through associations?</t>
+  </si>
+  <si>
+    <t>Consolidate associated diagnoses in one reference row</t>
+  </si>
+  <si>
+    <t>ds.GetSampleStatistics: Implementieren von grouping auf server und anwendung der dsBaseClient-Funktionen auf gegroupte Vektoren, anschließend Zusammenführung in einem Output-DF</t>
+  </si>
+  <si>
+    <t>Bug: Value Anzahl in Raw Stage immer 0 im ds-Ablauf</t>
+  </si>
+  <si>
+    <t>Implementieren: Übergeben von TransformationRuleSet an CurateDataDS von Client aus</t>
   </si>
 </sst>
 </file>
@@ -386,16 +410,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" style="1"/>
-    <col min="2" max="2" width="97.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="108" style="1" customWidth="1"/>
     <col min="3" max="16384" width="17.77734375" style="1"/>
   </cols>
   <sheetData>
@@ -412,14 +436,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
+    <row r="4" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Development/ToDo.xlsx
+++ b/Development/ToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basti\ARBEIT Lokal\dsCCPhos\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1A71E8-6E22-4B9C-ABD5-72CAA2BD132C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660165D3-A282-467B-8B74-8F062EDD3A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Task</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Bei InitialDiagnosis: Diagnose-Details zu nested Details</t>
   </si>
   <si>
-    <t>Zusammenfassung der Transformation Monitors</t>
-  </si>
-  <si>
-    <t>Messaging Objekt</t>
-  </si>
-  <si>
     <t>Checken Selektion in CCP-Explorer: Werden bei multiplen Malignomen alle Fälle von Patienten mitselektiert?</t>
   </si>
   <si>
@@ -69,10 +63,10 @@
     <t>ds.GetSampleStatistics: Implementieren von grouping auf server und anwendung der dsBaseClient-Funktionen auf gegroupte Vektoren, anschließend Zusammenführung in einem Output-DF</t>
   </si>
   <si>
-    <t>Bug: Value Anzahl in Raw Stage immer 0 im ds-Ablauf</t>
-  </si>
-  <si>
-    <t>Implementieren: Übergeben von TransformationRuleSet an CurateDataDS von Client aus</t>
+    <t>test-that implementieren</t>
+  </si>
+  <si>
+    <t>renv implementieren</t>
   </si>
 </sst>
 </file>
@@ -410,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C19"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -438,17 +432,17 @@
     </row>
     <row r="4" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -466,24 +460,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+    <row r="16" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Development/ToDo.xlsx
+++ b/Development/ToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basti\ARBEIT Lokal\dsCCPhos\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660165D3-A282-467B-8B74-8F062EDD3A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840F8A1E-61A5-4558-A1EE-88025841496E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Task</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>renv implementieren</t>
+  </si>
+  <si>
+    <t>Monitor data frames: Add column with transformed value (Zuordnung ursprüngliches zu transformiertem Wert ermöglichen)</t>
+  </si>
+  <si>
+    <t>Validierungs-Funktionen direkt an ds.CurateData und ds.AugmentData anhängen</t>
+  </si>
+  <si>
+    <t>Nach Augmentation: Plausibility assessment -&gt; sind (univariate) Verteilungen homogen über alle Sites oder unterschiedlich? "Selection Bias"?</t>
   </si>
 </sst>
 </file>
@@ -404,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B2:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -470,6 +479,21 @@
         <v>8</v>
       </c>
     </row>
+    <row r="18" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Development/ToDo.xlsx
+++ b/Development/ToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basti\ARBEIT Lokal\dsCCPhos\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840F8A1E-61A5-4558-A1EE-88025841496E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759E57CD-1095-4516-BCD8-11DB3A479248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Task</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>renv implementieren</t>
-  </si>
-  <si>
-    <t>Monitor data frames: Add column with transformed value (Zuordnung ursprüngliches zu transformiertem Wert ermöglichen)</t>
   </si>
   <si>
     <t>Validierungs-Funktionen direkt an ds.CurateData und ds.AugmentData anhängen</t>
@@ -415,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -479,19 +476,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="20" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Development/ToDo.xlsx
+++ b/Development/ToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basti\ARBEIT Lokal\dsCCPhos\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759E57CD-1095-4516-BCD8-11DB3A479248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21F380F-9F3F-4A17-BA52-F1A645534B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Task</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>GetValidationReportDS</t>
-  </si>
-  <si>
-    <t>in Events: Daten für initiale Diagnose und LastVitalStatus ggf. anpassen, falls nicht konsistent mit anderen verfügbaren Daten</t>
-  </si>
-  <si>
-    <t>Bei InitialDiagnosis: Diagnose-Details zu nested Details</t>
   </si>
   <si>
     <t>Checken Selektion in CCP-Explorer: Werden bei multiplen Malignomen alle Fälle von Patienten mitselektiert?</t>
@@ -412,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -438,52 +432,42 @@
     </row>
     <row r="4" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Development/ToDo.xlsx
+++ b/Development/ToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basti\ARBEIT Lokal\dsCCPhos\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21F380F-9F3F-4A17-BA52-F1A645534B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07389CE-765B-4F60-8667-48AFADC3DF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Task</t>
-  </si>
-  <si>
-    <t>Check function: feature names in RDS correct? All tables and features available?</t>
-  </si>
-  <si>
-    <t>GetValidationReportDS</t>
   </si>
   <si>
     <t>Checken Selektion in CCP-Explorer: Werden bei multiplen Malignomen alle Fälle von Patienten mitselektiert?</t>
@@ -404,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C22"/>
+  <dimension ref="B2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -417,57 +411,49 @@
     <col min="3" max="16384" width="17.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="14" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+    <row r="16" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Development/ToDo.xlsx
+++ b/Development/ToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basti\ARBEIT Lokal\dsCCPhos\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07389CE-765B-4F60-8667-48AFADC3DF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A33616-6C31-4476-AE7A-C44E1772C1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="0" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Task</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Nach Augmentation: Plausibility assessment -&gt; sind (univariate) Verteilungen homogen über alle Sites oder unterschiedlich? "Selection Bias"?</t>
+  </si>
+  <si>
+    <t>Option: Exclude all patients that are associated with deleted table entries</t>
+  </si>
+  <si>
+    <t>Output "Random Undisclosive Sample" (~ 5 Einträge aus Tabelle mit randomly zusammengewürfelten Spaltenwert-Kombis)</t>
+  </si>
+  <si>
+    <t>Track excluded entries and option to output them</t>
   </si>
 </sst>
 </file>
@@ -400,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -416,11 +425,21 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="4" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="6" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -429,6 +448,11 @@
     <row r="7" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">

--- a/Development/ToDo.xlsx
+++ b/Development/ToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basti\ARBEIT Lokal\dsCCPhos\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A33616-6C31-4476-AE7A-C44E1772C1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D9E82B-2B74-4E38-97F0-E80C12A202B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="0" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Task</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Track excluded entries and option to output them</t>
+  </si>
+  <si>
+    <t>require() überall ersetzen durch @importFrom statements und XYZ::function()</t>
   </si>
 </sst>
 </file>
@@ -409,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -455,6 +458,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="12" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>1</v>
